--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H2">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>8.30778810080121</v>
+        <v>23.34377233333333</v>
       </c>
       <c r="N2">
-        <v>8.30778810080121</v>
+        <v>70.031317</v>
       </c>
       <c r="O2">
-        <v>0.5985391088341172</v>
+        <v>0.6243713731385436</v>
       </c>
       <c r="P2">
-        <v>0.5985391088341172</v>
+        <v>0.6243713731385436</v>
       </c>
       <c r="Q2">
-        <v>105.9491695915543</v>
+        <v>675.9488701903128</v>
       </c>
       <c r="R2">
-        <v>105.9491695915543</v>
+        <v>6083.539831712817</v>
       </c>
       <c r="S2">
-        <v>0.2098995224162767</v>
+        <v>0.3428457047273877</v>
       </c>
       <c r="T2">
-        <v>0.2098995224162767</v>
+        <v>0.3428457047273878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H3">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J3">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.57232094835314</v>
+        <v>8.314670666666666</v>
       </c>
       <c r="N3">
-        <v>5.57232094835314</v>
+        <v>24.944012</v>
       </c>
       <c r="O3">
-        <v>0.4014608911658829</v>
+        <v>0.2223908915496236</v>
       </c>
       <c r="P3">
-        <v>0.4014608911658829</v>
+        <v>0.2223908915496236</v>
       </c>
       <c r="Q3">
-        <v>71.06377413727012</v>
+        <v>240.7619541042418</v>
       </c>
       <c r="R3">
-        <v>71.06377413727012</v>
+        <v>2166.857586938176</v>
       </c>
       <c r="S3">
-        <v>0.1407868727052317</v>
+        <v>0.12211604378179</v>
       </c>
       <c r="T3">
-        <v>0.1407868727052317</v>
+        <v>0.12211604378179</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.6827628451534</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H4">
-        <v>12.6827628451534</v>
+        <v>86.868848</v>
       </c>
       <c r="I4">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J4">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.30778810080121</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N4">
-        <v>8.30778810080121</v>
+        <v>0.085964</v>
       </c>
       <c r="O4">
-        <v>0.5985391088341172</v>
+        <v>0.0007664208388438813</v>
       </c>
       <c r="P4">
-        <v>0.5985391088341172</v>
+        <v>0.0007664208388438813</v>
       </c>
       <c r="Q4">
-        <v>105.3657062502491</v>
+        <v>0.829732627719111</v>
       </c>
       <c r="R4">
-        <v>105.3657062502491</v>
+        <v>7.467593649472</v>
       </c>
       <c r="S4">
-        <v>0.2087436032414546</v>
+        <v>0.0004208458361733388</v>
       </c>
       <c r="T4">
-        <v>0.2087436032414546</v>
+        <v>0.0004208458361733389</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.6827628451534</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H5">
-        <v>12.6827628451534</v>
+        <v>86.868848</v>
       </c>
       <c r="I5">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J5">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.57232094835314</v>
+        <v>5.700542666666667</v>
       </c>
       <c r="N5">
-        <v>5.57232094835314</v>
+        <v>17.101628</v>
       </c>
       <c r="O5">
-        <v>0.4014608911658829</v>
+        <v>0.1524713144729888</v>
       </c>
       <c r="P5">
-        <v>0.4014608911658829</v>
+        <v>0.1524713144729888</v>
       </c>
       <c r="Q5">
-        <v>70.67242508504317</v>
+        <v>165.0665248093938</v>
       </c>
       <c r="R5">
-        <v>70.67242508504317</v>
+        <v>1485.598723284544</v>
       </c>
       <c r="S5">
-        <v>0.1400115577171372</v>
+        <v>0.08372282508474925</v>
       </c>
       <c r="T5">
-        <v>0.1400115577171372</v>
+        <v>0.08372282508474928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.350677823994581</v>
+        <v>12.691493</v>
       </c>
       <c r="H6">
-        <v>0.350677823994581</v>
+        <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J6">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.30778810080121</v>
+        <v>23.34377233333333</v>
       </c>
       <c r="N6">
-        <v>8.30778810080121</v>
+        <v>70.031317</v>
       </c>
       <c r="O6">
-        <v>0.5985391088341172</v>
+        <v>0.6243713731385436</v>
       </c>
       <c r="P6">
-        <v>0.5985391088341172</v>
+        <v>0.6243713731385436</v>
       </c>
       <c r="Q6">
-        <v>2.913357053397041</v>
+        <v>296.2673231620936</v>
       </c>
       <c r="R6">
-        <v>2.913357053397041</v>
+        <v>2666.405908458843</v>
       </c>
       <c r="S6">
-        <v>0.005771751269911573</v>
+        <v>0.1502687313740263</v>
       </c>
       <c r="T6">
-        <v>0.005771751269911573</v>
+        <v>0.1502687313740263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.350677823994581</v>
+        <v>12.691493</v>
       </c>
       <c r="H7">
-        <v>0.350677823994581</v>
+        <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J7">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.57232094835314</v>
+        <v>8.314670666666666</v>
       </c>
       <c r="N7">
-        <v>5.57232094835314</v>
+        <v>24.944012</v>
       </c>
       <c r="O7">
-        <v>0.4014608911658829</v>
+        <v>0.2223908915496236</v>
       </c>
       <c r="P7">
-        <v>0.4014608911658829</v>
+        <v>0.2223908915496236</v>
       </c>
       <c r="Q7">
-        <v>1.954089384767899</v>
+        <v>105.5255845633053</v>
       </c>
       <c r="R7">
-        <v>1.954089384767899</v>
+        <v>949.7302610697479</v>
       </c>
       <c r="S7">
-        <v>0.003871313292994361</v>
+        <v>0.05352326929134417</v>
       </c>
       <c r="T7">
-        <v>0.003871313292994361</v>
+        <v>0.05352326929134417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.5793725152376</v>
+        <v>12.691493</v>
       </c>
       <c r="H8">
-        <v>10.5793725152376</v>
+        <v>38.074479</v>
       </c>
       <c r="I8">
-        <v>0.290915379356994</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J8">
-        <v>0.290915379356994</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>8.30778810080121</v>
+        <v>0.02865466666666667</v>
       </c>
       <c r="N8">
-        <v>8.30778810080121</v>
+        <v>0.085964</v>
       </c>
       <c r="O8">
-        <v>0.5985391088341172</v>
+        <v>0.0007664208388438813</v>
       </c>
       <c r="P8">
-        <v>0.5985391088341172</v>
+        <v>0.0007664208388438813</v>
       </c>
       <c r="Q8">
-        <v>87.89118509603429</v>
+        <v>0.3636705014173333</v>
       </c>
       <c r="R8">
-        <v>87.89118509603429</v>
+        <v>3.273034512756</v>
       </c>
       <c r="S8">
-        <v>0.1741242319064743</v>
+        <v>0.0001844560659031558</v>
       </c>
       <c r="T8">
-        <v>0.1741242319064743</v>
+        <v>0.0001844560659031558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.5793725152376</v>
+        <v>12.691493</v>
       </c>
       <c r="H9">
-        <v>10.5793725152376</v>
+        <v>38.074479</v>
       </c>
       <c r="I9">
-        <v>0.290915379356994</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J9">
-        <v>0.290915379356994</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.57232094835314</v>
+        <v>5.700542666666667</v>
       </c>
       <c r="N9">
-        <v>5.57232094835314</v>
+        <v>17.101628</v>
       </c>
       <c r="O9">
-        <v>0.4014608911658829</v>
+        <v>0.1524713144729888</v>
       </c>
       <c r="P9">
-        <v>0.4014608911658829</v>
+        <v>0.1524713144729888</v>
       </c>
       <c r="Q9">
-        <v>58.95165908708993</v>
+        <v>72.34839735020134</v>
       </c>
       <c r="R9">
-        <v>58.95165908708993</v>
+        <v>651.135576151812</v>
       </c>
       <c r="S9">
-        <v>0.1167911474505197</v>
+        <v>0.0366955821206465</v>
       </c>
       <c r="T9">
-        <v>0.1167911474505197</v>
+        <v>0.0366955821206465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.466611</v>
+      </c>
+      <c r="I10">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J10">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.34377233333333</v>
+      </c>
+      <c r="N10">
+        <v>70.031317</v>
+      </c>
+      <c r="O10">
+        <v>0.6243713731385436</v>
+      </c>
+      <c r="P10">
+        <v>0.6243713731385436</v>
+      </c>
+      <c r="Q10">
+        <v>11.41207776185411</v>
+      </c>
+      <c r="R10">
+        <v>102.708699856687</v>
+      </c>
+      <c r="S10">
+        <v>0.005788280763846884</v>
+      </c>
+      <c r="T10">
+        <v>0.005788280763846884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.466611</v>
+      </c>
+      <c r="I11">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J11">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.314670666666666</v>
+      </c>
+      <c r="N11">
+        <v>24.944012</v>
+      </c>
+      <c r="O11">
+        <v>0.2223908915496236</v>
+      </c>
+      <c r="P11">
+        <v>0.2223908915496236</v>
+      </c>
+      <c r="Q11">
+        <v>4.064795820370223</v>
+      </c>
+      <c r="R11">
+        <v>36.583162383332</v>
+      </c>
+      <c r="S11">
+        <v>0.002061691126453696</v>
+      </c>
+      <c r="T11">
+        <v>0.002061691126453696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.466611</v>
+      </c>
+      <c r="I12">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J12">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02865466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.085964</v>
+      </c>
+      <c r="O12">
+        <v>0.0007664208388438813</v>
+      </c>
+      <c r="P12">
+        <v>0.0007664208388438813</v>
+      </c>
+      <c r="Q12">
+        <v>0.01400841644488889</v>
+      </c>
+      <c r="R12">
+        <v>0.126075748004</v>
+      </c>
+      <c r="S12">
+        <v>7.105160789469853E-06</v>
+      </c>
+      <c r="T12">
+        <v>7.105160789469853E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.466611</v>
+      </c>
+      <c r="I13">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J13">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.700542666666667</v>
+      </c>
+      <c r="N13">
+        <v>17.101628</v>
+      </c>
+      <c r="O13">
+        <v>0.1524713144729888</v>
+      </c>
+      <c r="P13">
+        <v>0.1524713144729888</v>
+      </c>
+      <c r="Q13">
+        <v>2.786826193634222</v>
+      </c>
+      <c r="R13">
+        <v>25.081435742708</v>
+      </c>
+      <c r="S13">
+        <v>0.001413496541595316</v>
+      </c>
+      <c r="T13">
+        <v>0.001413496541595316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H14">
+        <v>31.790737</v>
+      </c>
+      <c r="I14">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J14">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>23.34377233333333</v>
+      </c>
+      <c r="N14">
+        <v>70.031317</v>
+      </c>
+      <c r="O14">
+        <v>0.6243713731385436</v>
+      </c>
+      <c r="P14">
+        <v>0.6243713731385436</v>
+      </c>
+      <c r="Q14">
+        <v>247.3719089456254</v>
+      </c>
+      <c r="R14">
+        <v>2226.347180510629</v>
+      </c>
+      <c r="S14">
+        <v>0.1254686562732827</v>
+      </c>
+      <c r="T14">
+        <v>0.1254686562732827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H15">
+        <v>31.790737</v>
+      </c>
+      <c r="I15">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J15">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.314670666666666</v>
+      </c>
+      <c r="N15">
+        <v>24.944012</v>
+      </c>
+      <c r="O15">
+        <v>0.2223908915496236</v>
+      </c>
+      <c r="P15">
+        <v>0.2223908915496236</v>
+      </c>
+      <c r="Q15">
+        <v>88.10983613520489</v>
+      </c>
+      <c r="R15">
+        <v>792.988525216844</v>
+      </c>
+      <c r="S15">
+        <v>0.04468988735003568</v>
+      </c>
+      <c r="T15">
+        <v>0.04468988735003568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H16">
+        <v>31.790737</v>
+      </c>
+      <c r="I16">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J16">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02865466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.085964</v>
+      </c>
+      <c r="O16">
+        <v>0.0007664208388438813</v>
+      </c>
+      <c r="P16">
+        <v>0.0007664208388438813</v>
+      </c>
+      <c r="Q16">
+        <v>0.3036509906075556</v>
+      </c>
+      <c r="R16">
+        <v>2.732858915468</v>
+      </c>
+      <c r="S16">
+        <v>0.0001540137759779167</v>
+      </c>
+      <c r="T16">
+        <v>0.0001540137759779167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H17">
+        <v>31.790737</v>
+      </c>
+      <c r="I17">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J17">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.700542666666667</v>
+      </c>
+      <c r="N17">
+        <v>17.101628</v>
+      </c>
+      <c r="O17">
+        <v>0.1524713144729888</v>
+      </c>
+      <c r="P17">
+        <v>0.1524713144729888</v>
+      </c>
+      <c r="Q17">
+        <v>60.40815089109289</v>
+      </c>
+      <c r="R17">
+        <v>543.6733580198361</v>
+      </c>
+      <c r="S17">
+        <v>0.03063941072599773</v>
+      </c>
+      <c r="T17">
+        <v>0.03063941072599773</v>
       </c>
     </row>
   </sheetData>
